--- a/stock_predictor_ai/data/company_sentiment_ready/DHR_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/DHR_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11768"/>
+  <dimension ref="A1:B11775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94585,6 +94585,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11769">
+      <c r="A11769" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B11769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11770">
+      <c r="A11770" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B11770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11771">
+      <c r="A11771" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B11771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11772">
+      <c r="A11772" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B11772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11773">
+      <c r="A11773" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B11773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11774">
+      <c r="A11774" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B11774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11775">
+      <c r="A11775" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B11775" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
